--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>003092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>华商丰利增强定期开放债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003092</t>
+          <t>003093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券A</t>
+          <t>华商丰利增强定期开放债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003093</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券C</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1921,4 +1922,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1930,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,17 +1942,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1961,14 +1982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.35</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1977,14 +2020,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.68</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1993,14 +2058,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2009,13 +2096,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2937,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,17 +2949,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2968,14 +2989,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.68</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2984,14 +3027,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.35</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3000,14 +3065,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.68</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3016,14 +3103,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3032,13 +3141,1305 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4322,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4333,17 +4334,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4353,14 +4374,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.84</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4369,14 +4412,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.68</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4385,14 +4450,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.35</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4401,14 +4488,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.68</v>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4417,14 +4526,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4433,13 +4564,2235 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>19.48</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>6.84</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>5.68</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>4.35</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.68</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,3290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2935,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4319,7 +7620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5325,7 +8626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6177,7 +9478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6537,7 +9838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6707,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
+++ b/数据整理/stocks/A股/深证主板/002472-双环传动.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>19.34</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>19.48</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>6.84</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>5.68</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>4.35</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +633,2777 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3632</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发盛锦混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>017098</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3900,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6236,7 +9023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7620,7 +10407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8626,7 +11413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9478,7 +12265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9838,7 +12625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10006,98 +12793,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>